--- a/biology/Botanique/Marjolaine/Marjolaine.xlsx
+++ b/biology/Botanique/Marjolaine/Marjolaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Origanum majorana
 La marjolaine ou origan des jardins (Origanum majorana) est une plante vivace de la famille des Lamiacées, cultivée comme plante condimentaire pour ses feuilles aromatiques. C'est une espèce très proche de l'origan commun (Origanum vulgare). Elle est parfois appelée marjolaine des jardins.
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante vivace, de 60 cm de haut. Feuilles opposées, duveteuses, vert grisâtre, de forme ovale entière, de 1 à 2 cm de long. Petites fleurs blanches ou mauves, réunies en groupes serrés à l'aisselle des feuilles avec deux bractées en forme de cuillère. La marjolaine est mellifère.
 </t>
@@ -546,7 +560,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce originaire de l'est du bassin méditerranéen (Chypre, Turquie), cultivée depuis l'Antiquité dans toute l'Europe.
 </t>
@@ -577,9 +593,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vivace cultivée comme une annuelle. Peut être multipliée par éclats de touffe et par semis. Elle a besoin d'une exposition ensoleillée et ne supporte pas l'humidité combinée au froid. Elle supporte légèrement le gel puisque sa zone de rusticité se situe entre 6 et 9[1]. Floraison juillet/août.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vivace cultivée comme une annuelle. Peut être multipliée par éclats de touffe et par semis. Elle a besoin d'une exposition ensoleillée et ne supporte pas l'humidité combinée au froid. Elle supporte légèrement le gel puisque sa zone de rusticité se situe entre 6 et 9. Floraison juillet/août.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Plante hôte</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Un « papillon de nuit » (hétérocère) se nourrit de marjolaine : la phalène blanche (Siona lineata), de la famille des Geometridae.
 </t>
@@ -639,9 +659,11 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'huile essentielle d'origan comporte environ 40 % de carvacrol et 20 % de thymol[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'huile essentielle d'origan comporte environ 40 % de carvacrol et 20 % de thymol.
 </t>
         </is>
       </c>
@@ -670,10 +692,12 @@
           <t>Utilisations culinaires, médicinales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En cuisine, cette herbe s'emploie sous forme de feuilles fraîches ou séchées, seule ou en mélange avec d'autres herbes, pour aromatiser de nombreuses préparations culinaires. Son arôme plus délicat que celui de l'origan la rapproche du thym. Il convient de l'ajouter en fin de préparation, un temps de cuisson trop long risquant de faire disparaître tout son arôme.
-L'essence obtenue par distillation des fleurs est antiseptique, surtout utilisée en fumigations[réf. souhaitée]. La marjolaine était parfois considérée comme aphrodisiaque[3]. À certaine concentration d'huile essentielle elle agit comme répulsif contre la guêpe commune[4].
+L'essence obtenue par distillation des fleurs est antiseptique, surtout utilisée en fumigations[réf. souhaitée]. La marjolaine était parfois considérée comme aphrodisiaque. À certaine concentration d'huile essentielle elle agit comme répulsif contre la guêpe commune.
 </t>
         </is>
       </c>
@@ -702,7 +726,9 @@
           <t>Risques de confusion</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">On qualifie parfois à tort de marjolaine sauvage une autre Lamiaceae, Clinopodium nepeta, le calament nepeta (a nepita en langue corse) utilisé dans de nombreuses spécialités culinaires de la Corse et de l'Italie.
 </t>
@@ -733,9 +759,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (5 nov. 2012)[5] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (5 nov. 2012) :
 Origanum majorana L. (1753)</t>
         </is>
       </c>
